--- a/number-error_message.xlsx
+++ b/number-error_message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59370\Desktop\web_show\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F20F00-59E0-4450-89BA-0ADC5CC981FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B2F8E6-AE93-48FC-A5D8-0D99F196B458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{970F2F4F-DBFF-4AA1-B679-34FDDBD721D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{970F2F4F-DBFF-4AA1-B679-34FDDBD721D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,9 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>now is smaller than stopTime + 1 year</t>
-  </si>
-  <si>
     <t>ProjectRefunds: project sell token transfer failure</t>
   </si>
   <si>
@@ -208,6 +205,14 @@
   </si>
   <si>
     <t>voteResult is not valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockPeriod is zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now is smaller than stopTime + lockPeriod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80FF980-8322-4478-8984-4D071D69C2B9}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -702,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +715,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +755,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +787,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +795,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +811,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +819,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +827,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +835,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +843,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +851,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +859,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +867,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +875,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +883,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +891,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +907,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +915,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +923,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +931,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +939,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +947,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +955,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +963,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +971,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +979,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +987,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +995,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +1003,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1027,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1035,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,6 +1043,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
     </row>

--- a/number-error_message.xlsx
+++ b/number-error_message.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59370\Desktop\web_show\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B2F8E6-AE93-48FC-A5D8-0D99F196B458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42FAD82-8081-45AC-87B2-CA1955EF99B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{970F2F4F-DBFF-4AA1-B679-34FDDBD721D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>now is smaller than stopTime + lockPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>already refund</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80FF980-8322-4478-8984-4D071D69C2B9}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1054,6 +1058,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
